--- a/files/4.xlsx
+++ b/files/4.xlsx
@@ -2183,6 +2183,21 @@
           <t>(1994 Onwards)</t>
         </is>
       </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>(1994 Onwards)</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>(1994 Onwards)</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>(1994 Onwards)</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
@@ -2200,6 +2215,21 @@
           <t>(2012 Onwards)</t>
         </is>
       </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>(2012 Onwards)</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>(2012 Onwards)</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>(2012 Onwards)</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
@@ -2317,10 +2347,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="U41:X41"/>
-    <mergeCell ref="U42:X42"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>